--- a/M2.T1P/SIT315Parallel Spreadsheet.xlsx
+++ b/M2.T1P/SIT315Parallel Spreadsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarro\Desktop\Uni Work\Year 4\Concurrent &amp; Distributed Programming SIT315\Module 2\M2.T1P\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarro\Desktop\Uni Work\Year 4\Concurrent &amp; Distributed Programming SIT315\Module 2\Module-2\M2.T1P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3790237B-4BA2-4B25-8275-6949A613CA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAE0B9-C4BD-4EB0-9088-EBD9A3DA71D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Table 1</t>
-  </si>
   <si>
     <t>Threads</t>
   </si>
@@ -41,6 +38,9 @@
   </si>
   <si>
     <t>Pthread(Thread)</t>
+  </si>
+  <si>
+    <t>Average time for Multiplication(Each was done three times for an average)</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1416,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1427,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.65" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1440,13 +1440,13 @@
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="23" spans="1:8" ht="20" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="13">
         <v>1</v>

--- a/M2.T1P/SIT315Parallel Spreadsheet.xlsx
+++ b/M2.T1P/SIT315Parallel Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarro\Desktop\Uni Work\Year 4\Concurrent &amp; Distributed Programming SIT315\Module 2\Module-2\M2.T1P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AAE0B9-C4BD-4EB0-9088-EBD9A3DA71D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE61487-538B-4BDD-952D-46F44760C1F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1412,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
